--- a/datosClientes.xlsx
+++ b/datosClientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hircasa-my.sharepoint.com/personal/agarcia_hircasa_com/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documentos\Udemy\NET\PruebaTecnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D9E0C80F-6A70-415C-ADF8-BA4F005A81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85091A71-CB42-4EEF-B20B-938F6E592A6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080AE6B-E353-409F-B117-57931619CF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="11010" windowWidth="25860" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +467,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -783,7 +791,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -826,6 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -833,27 +842,27 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -885,6 +894,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1209,25 +1219,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1295,7 +1305,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3">
@@ -1314,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1324,7 +1334,7 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
@@ -1343,7 +1353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1353,7 +1363,7 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3">
@@ -1372,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1382,10 +1392,10 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>28</v>
       </c>
       <c r="F6" s="5">
@@ -1401,7 +1411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1411,7 +1421,7 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3">
@@ -1430,7 +1440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1440,7 +1450,7 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="3">
@@ -1459,7 +1469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1469,7 +1479,7 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="3">
@@ -1488,7 +1498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1498,7 +1508,7 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
@@ -1517,7 +1527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1527,7 +1537,7 @@
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="3">
@@ -1546,303 +1556,313 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F101" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{0D9B9FD8-4F3B-4D73-A220-1FF73E5D52A4}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{B0E97865-DFA8-47D1-B1EF-B86259DFFFD9}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{2BC116B8-5AC4-470C-968B-A6127BE1BCF3}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{26E5DE0C-6333-480E-8452-695272ADBD2A}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{01013A57-262A-4D31-9025-04B62C659B9A}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{6CCECA8B-6ABC-419A-B834-CF56A3444024}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{05A2B39D-5413-4706-AA48-655D3809FE15}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{3ED4F2DC-DF88-4035-B278-C6C77494A891}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{1DF8E343-85FA-4699-B456-A6767F42F90F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="115.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -1862,14 +1882,14 @@
       <c r="I1" s="5"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>898960.61</v>
       </c>
       <c r="D2" s="3">
@@ -1877,19 +1897,23 @@
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B2,  ", ", C2, ", ", D2, ", ",  "'", E2, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (8, 898960.61, 1, 'Oct 11, 2021');</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>498882.82</v>
       </c>
       <c r="D3" s="3">
@@ -1897,19 +1921,23 @@
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G38" si="0">_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B3,  ", ", C3, ", ", D3, ", ",  "'", E3, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (10, 498882.82, 1, 'Aug 14, 2021');</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>631239.4</v>
       </c>
       <c r="D4" s="3">
@@ -1917,19 +1945,23 @@
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 631239.4, 1, 'Dec 26, 2022');</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>43000</v>
       </c>
       <c r="D5" s="3">
@@ -1937,19 +1969,23 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (1, 43000, 1, 'Oct 18, 2021');</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>88656.6</v>
       </c>
       <c r="D6" s="3">
@@ -1958,19 +1994,23 @@
       <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (5, 88656.6, 0, 'Sep 6, 2021');</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>254661.68</v>
       </c>
       <c r="D7" s="3">
@@ -1978,19 +2018,23 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (6, 254661.68, 1, 'Jun 14, 2022');</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>50846.04</v>
       </c>
       <c r="D8" s="3">
@@ -2000,18 +2044,22 @@
         <v>36</v>
       </c>
       <c r="F8" s="3"/>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 50846.04, 1, 'Jul 20, 2022');</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>67764.009999999995</v>
       </c>
       <c r="D9" s="3">
@@ -2019,19 +2067,23 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (7, 67764.01, 1, 'Sep 16, 2022');</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>669890.81999999995</v>
       </c>
       <c r="D10" s="3">
@@ -2041,18 +2093,22 @@
         <v>37</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (6, 669890.82, 1, 'Oct 3, 2022');</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2700</v>
       </c>
       <c r="D11" s="3">
@@ -2062,8 +2118,12 @@
         <v>38</v>
       </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B11,  ", ", C11, ", ", D11, ", ",  "'", E11, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (1, 2700, 1, 'Oct 27, 2021');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2080,15 +2140,19 @@
         <v>39</v>
       </c>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (9, 331876, 1, 'Jan 24, 2022');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>787879.68</v>
       </c>
       <c r="D13" s="3">
@@ -2098,15 +2162,19 @@
         <v>40</v>
       </c>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (8, 787879.68, 0, 'Jan 27, 2022');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>13777.71</v>
       </c>
       <c r="D14" s="3">
@@ -2115,17 +2183,20 @@
       <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="8"/>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (8, 13777.71, 1, 'Sep 14, 2022');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>8372.77</v>
       </c>
       <c r="D15" s="3">
@@ -2134,15 +2205,19 @@
       <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (4, 8372.77, 1, 'Feb 7, 2022');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>7298</v>
       </c>
       <c r="D16" s="3">
@@ -2151,15 +2226,19 @@
       <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G16" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B16,  ", ", C16, ", ", D16, ", ",  "'", E16, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (1, 7298, 1, 'Sep 6, 2022');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>2572.31</v>
       </c>
       <c r="D17" s="3">
@@ -2168,15 +2247,19 @@
       <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (4, 2572.31, 1, 'May 6, 2022');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>447671.39</v>
       </c>
       <c r="D18" s="3">
@@ -2185,16 +2268,20 @@
       <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="8"/>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (10, 447671.39, 1, 'Nov 25, 2021');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>197670.39999999999</v>
       </c>
       <c r="D19" s="3">
@@ -2203,15 +2290,19 @@
       <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (6, 197670.4, 1, 'Oct 14, 2022');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>490376.34</v>
       </c>
       <c r="D20" s="3">
@@ -2220,15 +2311,19 @@
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (10, 490376.34, 1, 'Oct 14, 2022');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>326830.23</v>
       </c>
       <c r="D21" s="3">
@@ -2237,16 +2332,20 @@
       <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="8"/>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 326830.23, 1, 'Dec 21, 2022');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>1713.89</v>
       </c>
       <c r="D22" s="3">
@@ -2255,15 +2354,19 @@
       <c r="E22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (3, 1713.89, 0, 'May 7, 2022');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1000.04</v>
       </c>
       <c r="D23" s="3">
@@ -2272,15 +2375,19 @@
       <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (1, 1000.04, 1, 'Apr 29, 2022');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>66661.37</v>
       </c>
       <c r="D24" s="3">
@@ -2289,16 +2396,20 @@
       <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="8"/>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (3, 66661.37, 1, 'Dec 6, 2021');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>238787.18</v>
       </c>
       <c r="D25" s="3">
@@ -2307,15 +2418,19 @@
       <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G25" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B25,  ", ", C25, ", ", D25, ", ",  "'", E25, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 238787.18, 0, 'Feb 22, 2022');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>255220.05</v>
       </c>
       <c r="D26" s="3">
@@ -2324,15 +2439,19 @@
       <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (5, 255220.05, 1, 'Mar 15, 2022');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>68767.62</v>
       </c>
       <c r="D27" s="3">
@@ -2341,16 +2460,20 @@
       <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="8"/>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (3, 68767.62, 1, 'Oct 28, 2021');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>137308.5</v>
       </c>
       <c r="D28" s="3">
@@ -2359,15 +2482,19 @@
       <c r="E28" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (7, 137308.5, 1, 'Dec 13, 2022');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>20000</v>
       </c>
       <c r="D29" s="3">
@@ -2376,16 +2503,20 @@
       <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="8"/>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (1, 20000, 1, 'Aug 3, 2022');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>14578.38</v>
       </c>
       <c r="D30" s="3">
@@ -2394,15 +2525,19 @@
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 14578.38, 1, 'Oct 22, 2021');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>6</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>64488.01</v>
       </c>
       <c r="D31" s="3">
@@ -2411,16 +2546,20 @@
       <c r="E31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="8"/>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (6, 64488.01, 0, 'Dec 24, 2022');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>8264.7199999999993</v>
       </c>
       <c r="D32" s="3">
@@ -2429,15 +2568,19 @@
       <c r="E32" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (4, 8264.72, 1, 'May 25, 2022');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>348887.74</v>
       </c>
       <c r="D33" s="3">
@@ -2446,15 +2589,19 @@
       <c r="E33" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (3, 348887.74, 1, 'Dec 6, 2022');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>555687.92000000004</v>
       </c>
       <c r="D34" s="3">
@@ -2463,16 +2610,20 @@
       <c r="E34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="8"/>
+      <c r="G34" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B34,  ", ", C34, ", ", D34, ", ",  "'", E34, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 555687.92, 1, 'Oct 9, 2021');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>537766.31999999995</v>
       </c>
       <c r="D35" s="3">
@@ -2482,15 +2633,19 @@
         <v>61</v>
       </c>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (6, 537766.32, 0, 'Oct 19, 2022');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>10</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>327769.86</v>
       </c>
       <c r="D36" s="3">
@@ -2499,15 +2654,19 @@
       <c r="E36" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (10, 327769.86, 1, 'Nov 22, 2021');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>31543.759999999998</v>
       </c>
       <c r="D37" s="3">
@@ -2516,15 +2675,19 @@
       <c r="E37" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 31543.76, 0, 'Aug 12, 2022');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>255678.57</v>
       </c>
       <c r="D38" s="3">
@@ -2533,15 +2696,19 @@
       <c r="E38" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (2, 255678.57, 1, 'Sep 22, 2022');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>366888.15</v>
       </c>
       <c r="D39" s="3">
@@ -2550,15 +2717,20 @@
       <c r="E39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (", B39,  ", ", C39, ", ", D39, ", ",  "'", E39, "'", ")", ";"  )</f>
+        <v>INSERT INTO Pagos (ClienteId, MontoPagado, Aplicado, FechaPago) Values (5, 366888.15, 1, 'Apr 9, 2022');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
       <sortCondition ref="A1"/>
     </sortState>
@@ -2570,21 +2742,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="96.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>71</v>
       </c>
@@ -2598,7 +2771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2611,8 +2784,12 @@
       <c r="D2" s="5">
         <v>-134174</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (", B2,  ",  ", C2, ",   ", D2, ", ",  , ")", ";"  )</f>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (8,  912738,   -134174, );</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2625,8 +2802,12 @@
       <c r="D3" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F11" si="0">_xlfn.CONCAT("INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (", B3,  ",  ", C3, ",   ", D3, ", ",  , ")", ";"  )</f>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (2,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2639,8 +2820,12 @@
       <c r="D4" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (9,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2653,8 +2838,12 @@
       <c r="D5" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (7,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2667,8 +2856,12 @@
       <c r="D6" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (3,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2681,8 +2874,12 @@
       <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (4,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2695,8 +2892,12 @@
       <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (6,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2709,8 +2910,12 @@
       <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (10,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2723,8 +2928,12 @@
       <c r="D10" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (1,  ?,   ?, );</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2736,6 +2945,10 @@
       </c>
       <c r="D11" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Ajustes (ClienteId, MontoTotal, Adeudo) Values (5,  ?,   ?, );</v>
       </c>
     </row>
   </sheetData>

--- a/datosClientes.xlsx
+++ b/datosClientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hircasa-my.sharepoint.com/personal/agarcia_hircasa_com/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\PruebaTecnica\Reclutamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D9E0C80F-6A70-415C-ADF8-BA4F005A81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85091A71-CB42-4EEF-B20B-938F6E592A6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A16BE-F6B9-43E7-BC94-A75EC3D9A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="11010" windowWidth="25860" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pagos!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -325,7 +314,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +456,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -783,7 +780,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -826,8 +823,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -852,8 +850,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -885,6 +886,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,25 +1211,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1372,7 +1374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1498,7 +1500,7 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
@@ -1517,7 +1519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1546,303 +1548,305 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{B61D6ACB-6F90-4E09-9776-429E39F9145B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -1862,7 +1866,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1882,7 +1886,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1902,7 +1906,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1922,7 +1926,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1942,7 +1946,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1963,7 +1967,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1983,7 +1987,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2004,7 +2008,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2024,7 +2028,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2063,7 +2067,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2081,7 +2085,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2099,7 +2103,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2118,7 +2122,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2187,7 +2191,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2221,7 +2225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2239,7 +2243,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2291,7 +2295,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2343,7 +2347,7 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2378,7 +2382,7 @@
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2413,7 +2417,7 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2447,7 +2451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2465,7 +2469,7 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2483,7 +2487,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2554,11 +2558,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
       <sortCondition ref="A1"/>
     </sortState>
@@ -2573,18 +2572,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>71</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>-134174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>

--- a/datosClientes.xlsx
+++ b/datosClientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hircasa-my.sharepoint.com/personal/agarcia_hircasa_com/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajcontrerasc\source\repos\HirCasaDesarrollo\Reclutamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D9E0C80F-6A70-415C-ADF8-BA4F005A81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85091A71-CB42-4EEF-B20B-938F6E592A6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C7822-2FD7-4D3B-8EA6-17CAF7147FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="11010" windowWidth="25860" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>477-1943</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Aprobación</t>
+  </si>
+  <si>
+    <t>pagosCliente 8</t>
   </si>
 </sst>
 </file>
@@ -827,31 +830,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1209,25 +1213,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1272,7 +1276,7 @@
       <c r="E2" s="3">
         <v>24</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>74300.039999999994</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1285,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1301,7 +1305,7 @@
       <c r="E3" s="3">
         <v>18</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1213748.2</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1314,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1330,7 +1334,7 @@
       <c r="E4" s="3">
         <v>45</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>378121.58</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1343,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1359,7 +1363,7 @@
       <c r="E5" s="3">
         <v>39</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>22430.14</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1372,7 +1376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1385,10 +1389,10 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>28</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>664419.39</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1401,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1417,7 +1421,7 @@
       <c r="E7" s="3">
         <v>25</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>980000.5</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1430,7 +1434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1446,7 +1450,7 @@
       <c r="E8" s="3">
         <v>56</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>276899.83</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1459,7 +1463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1475,7 +1479,7 @@
       <c r="E9" s="3">
         <v>83</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>778564</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1488,7 +1492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1504,7 +1508,7 @@
       <c r="E10" s="3">
         <v>60</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>331876</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1517,7 +1521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1533,7 +1537,7 @@
       <c r="E11" s="3">
         <v>37</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>634567.19999999995</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1546,274 +1550,274 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
     </row>
   </sheetData>
@@ -1826,287 +1830,299 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>898960.61</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>498882.82</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>631239.4</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="G4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(C2,C14)</f>
+        <v>912738.32</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>43000</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="H5" s="10">
+        <v>778564</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>88656.6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="H6" s="6">
+        <f>H4-H5</f>
+        <v>134174.31999999995</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>254661.68</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>50846.04</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="F8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>67764.009999999995</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>669890.81999999995</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="F10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
         <v>2700</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <v>331876</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>787879.68</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>13777.71</v>
       </c>
       <c r="D14" s="3">
@@ -2115,17 +2131,17 @@
       <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>8372.77</v>
       </c>
       <c r="D15" s="3">
@@ -2135,14 +2151,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>7298</v>
       </c>
       <c r="D16" s="3">
@@ -2152,14 +2168,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>2572.31</v>
       </c>
       <c r="D17" s="3">
@@ -2169,14 +2185,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>447671.39</v>
       </c>
       <c r="D18" s="3">
@@ -2185,16 +2201,16 @@
       <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>197670.39999999999</v>
       </c>
       <c r="D19" s="3">
@@ -2204,14 +2220,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>490376.34</v>
       </c>
       <c r="D20" s="3">
@@ -2221,14 +2237,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>326830.23</v>
       </c>
       <c r="D21" s="3">
@@ -2237,16 +2253,16 @@
       <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>1713.89</v>
       </c>
       <c r="D22" s="3">
@@ -2256,14 +2272,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>1000.04</v>
       </c>
       <c r="D23" s="3">
@@ -2273,14 +2289,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>66661.37</v>
       </c>
       <c r="D24" s="3">
@@ -2289,16 +2305,16 @@
       <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>238787.18</v>
       </c>
       <c r="D25" s="3">
@@ -2308,14 +2324,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>255220.05</v>
       </c>
       <c r="D26" s="3">
@@ -2325,14 +2341,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>68767.62</v>
       </c>
       <c r="D27" s="3">
@@ -2341,16 +2357,16 @@
       <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>137308.5</v>
       </c>
       <c r="D28" s="3">
@@ -2360,14 +2376,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>20000</v>
       </c>
       <c r="D29" s="3">
@@ -2376,16 +2392,16 @@
       <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>14578.38</v>
       </c>
       <c r="D30" s="3">
@@ -2395,14 +2411,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>6</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>64488.01</v>
       </c>
       <c r="D31" s="3">
@@ -2411,146 +2427,144 @@
       <c r="E31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="10">
         <v>4</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="10">
         <v>8264.7199999999993</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="10">
         <v>3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="10">
         <v>348887.74</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="10">
         <v>2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="10">
         <v>555687.92000000004</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="10">
         <v>6</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="10">
         <v>537766.31999999995</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="10">
         <v>0</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="10">
         <v>10</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="10">
         <v>327769.86</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="10">
         <v>2</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="10">
         <v>31543.759999999998</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="10">
         <v>0</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+    <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="10">
         <v>255678.57</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="10">
         <v>5</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="10">
         <v>366888.15</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -2576,165 +2590,165 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>912738</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>-134174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>89</v>
       </c>
     </row>
